--- a/medicine/Sexualité et sexologie/Sûr,_Sain_et_Consensuel/Sûr,_Sain_et_Consensuel.xlsx
+++ b/medicine/Sexualité et sexologie/Sûr,_Sain_et_Consensuel/Sûr,_Sain_et_Consensuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%BBr,_Sain_et_Consensuel</t>
+          <t>Sûr,_Sain_et_Consensuel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sécuritaire, sain et consenti
-Sûr, Sain et Consensuel (ou Sécuritaire, sain et consenti[1]) souvent abrégé SSC (de l'anglais : Safe, Sane and Consensual), est un principe guidant les relations et activités BDSM (« bondage, discipline, domination, soumission, sado-masochisme »). Au fil du temps, de nouvelles activités BDSM sont apparues, plus risquées, et ne s’inscrivent plus dans ce principe. Un autre a été créé : Risk Aware Consensual Kink (en) (RACK).
+Sûr, Sain et Consensuel (ou Sécuritaire, sain et consenti) souvent abrégé SSC (de l'anglais : Safe, Sane and Consensual), est un principe guidant les relations et activités BDSM (« bondage, discipline, domination, soumission, sado-masochisme »). Au fil du temps, de nouvelles activités BDSM sont apparues, plus risquées, et ne s’inscrivent plus dans ce principe. Un autre a été créé : Risk Aware Consensual Kink (en) (RACK).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%BBr,_Sain_et_Consensuel</t>
+          <t>Sûr,_Sain_et_Consensuel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ce principe, les relations BDSM doivent être : 
 Sûres : des efforts doivent être effectués en vue de prévenir les risques sur la santé.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%BBr,_Sain_et_Consensuel</t>
+          <t>Sûr,_Sain_et_Consensuel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Terme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La paternité du terme revient à David Stein qui l'a formulé pour la première fois en 1983 pour la Gay-Male-S/M Activists (GMSMA). Dans son essai, intitulé Safe Sane Consensual: The Evolution of a Shibboleth, Stein défend la création du terme pour distinguer le sadomasochisme consenti du sadomasochisme criminellement répréhensible[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La paternité du terme revient à David Stein qui l'a formulé pour la première fois en 1983 pour la Gay-Male-S/M Activists (GMSMA). Dans son essai, intitulé Safe Sane Consensual: The Evolution of a Shibboleth, Stein défend la création du terme pour distinguer le sadomasochisme consenti du sadomasochisme criminellement répréhensible.
 </t>
         </is>
       </c>
